--- a/A-开发相关文档素材/6.二期文档/产品接口协议.xlsx
+++ b/A-开发相关文档素材/6.二期文档/产品接口协议.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xiaoji\Documents\项目资料\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="9075"/>
   </bookViews>
@@ -52,9 +47,9 @@
     <sheet name="注册帐户" sheetId="3" r:id="rId38"/>
     <sheet name="初始化数据" sheetId="2" r:id="rId39"/>
   </sheets>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -62,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="924" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="953" uniqueCount="207">
   <si>
     <t>登录</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -140,10 +135,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Authorization</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>体</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -156,31 +147,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>DeviceId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>帐户ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>AccountId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>产品ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>产品版本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ProductId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ProductVersion</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -870,14 +845,50 @@
   </si>
   <si>
     <t>丁朝辉, 席理加, 张金洋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Authorization（auth）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProductId（pId）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProductVersion（Pv）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DeviceId（dId）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AccountId（aId）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DeviceType（Dtp）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>restful共通头部修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张金洋</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -944,7 +955,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -960,6 +971,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -999,7 +1016,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1066,6 +1083,15 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1078,21 +1104,36 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="15">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1238,7 +1279,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1273,7 +1314,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1450,70 +1491,81 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="11.25"/>
   <cols>
-    <col min="1" max="1" width="9.5" style="27" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.375" style="27" customWidth="1"/>
-    <col min="3" max="3" width="23.75" style="27" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="27"/>
+    <col min="1" max="1" width="9.5" style="23" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.375" style="23" customWidth="1"/>
+    <col min="3" max="3" width="23.75" style="23" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A1" s="26">
+    <row r="1" spans="1:3">
+      <c r="A1" s="22">
         <v>43527</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="23" t="s">
+        <v>188</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="22">
+        <v>43528</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>190</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="33.75">
+      <c r="A3" s="22">
+        <v>43528</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>194</v>
+      </c>
+      <c r="C3" s="23" t="s">
         <v>193</v>
       </c>
-      <c r="C1" s="27" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A2" s="26">
+    </row>
+    <row r="4" spans="1:3" ht="33.75">
+      <c r="A4" s="22">
         <v>43528</v>
       </c>
-      <c r="B2" s="27" t="s">
-        <v>195</v>
-      </c>
-      <c r="C2" s="27" t="s">
+      <c r="B4" s="24" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="33.75" x14ac:dyDescent="0.15">
-      <c r="A3" s="26">
+      <c r="C4" s="23" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="22">
         <v>43528</v>
       </c>
-      <c r="B3" s="28" t="s">
-        <v>199</v>
-      </c>
-      <c r="C3" s="27" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="33.75" x14ac:dyDescent="0.15">
-      <c r="A4" s="26">
-        <v>43528</v>
-      </c>
-      <c r="B4" s="28" t="s">
-        <v>201</v>
-      </c>
-      <c r="C4" s="27" t="s">
-        <v>202</v>
+      <c r="B5" s="24" t="s">
+        <v>205</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>206</v>
       </c>
     </row>
   </sheetData>
@@ -1523,43 +1575,43 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -1569,43 +1621,43 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -1615,43 +1667,43 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -1661,43 +1713,43 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -1707,43 +1759,43 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -1753,53 +1805,53 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
       <c r="B8" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
       <c r="B9" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -1809,43 +1861,43 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1855,53 +1907,53 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="B4" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="B5" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -1911,43 +1963,43 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -1957,63 +2009,63 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
       <c r="B8" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
       <c r="B9" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
       <c r="B10" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
       <c r="B11" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -2023,179 +2075,195 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X47"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:Y47"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane xSplit="5" ySplit="4" topLeftCell="F5" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A8" sqref="A8"/>
       <selection pane="topRight" activeCell="A8" sqref="A8"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="C6" sqref="C6"/>
+      <selection pane="bottomRight" activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="11.25"/>
   <cols>
     <col min="1" max="1" width="3.5" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.75" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" style="8"/>
-    <col min="6" max="6" width="11.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.25" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.875" style="7" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="9.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="20" width="9" style="1"/>
-    <col min="21" max="21" width="10.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="9" style="1"/>
-    <col min="23" max="23" width="10.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9" style="1"/>
+    <col min="10" max="10" width="13.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.875" style="7" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="9.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="21" width="9" style="1"/>
+    <col min="22" max="22" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9" style="1"/>
+    <col min="24" max="24" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:20" s="3" customFormat="1">
+      <c r="A1" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="E1" s="25" t="s">
+      <c r="D1" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="P1" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q1" s="4"/>
+    </row>
+    <row r="2" spans="1:20" s="3" customFormat="1">
+      <c r="A2" s="25"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="P2" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q2" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" s="3" customFormat="1">
+      <c r="A3" s="25"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" s="29" t="s">
+        <v>198</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="P3" s="26"/>
+      <c r="Q3" s="27"/>
+      <c r="R3" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="T3" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" s="3" customFormat="1">
+      <c r="A4" s="25"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="29" t="s">
+        <v>199</v>
+      </c>
+      <c r="G4" s="29" t="s">
+        <v>200</v>
+      </c>
+      <c r="H4" s="29" t="s">
+        <v>201</v>
+      </c>
+      <c r="I4" s="29" t="s">
+        <v>202</v>
+      </c>
+      <c r="J4" s="29" t="s">
+        <v>203</v>
+      </c>
+      <c r="K4" s="29" t="s">
+        <v>204</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="P4" s="26"/>
+      <c r="Q4" s="27"/>
+      <c r="R4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="S4" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="P1" s="4"/>
-    </row>
-    <row r="2" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="22"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="O2" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="P2" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="22"/>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="O3" s="23"/>
-      <c r="P3" s="24"/>
-      <c r="Q3" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="R3" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="S3" s="3" t="s">
+      <c r="T4" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="22"/>
-      <c r="B4" s="22"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="O4" s="23"/>
-      <c r="P4" s="24"/>
-      <c r="Q4" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="R4" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="S4" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:20">
       <c r="A5" s="2">
         <v>1</v>
       </c>
@@ -2206,55 +2274,58 @@
         <v>2</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="E5" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>71</v>
+        <v>27</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>32</v>
+        <v>66</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="P5" s="2">
+        <v>27</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q5" s="2">
         <v>200</v>
       </c>
-      <c r="Q5" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="R5" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="S5" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.15">
+        <v>43</v>
+      </c>
+      <c r="T5" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="2">
         <v>2</v>
       </c>
@@ -2265,55 +2336,58 @@
         <v>4</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E6" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>72</v>
+        <v>26</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>32</v>
+        <v>67</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="O6" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="P6" s="2">
+        <v>27</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q6" s="2">
         <v>200</v>
       </c>
-      <c r="Q6" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="R6" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="S6" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.15">
+        <v>43</v>
+      </c>
+      <c r="T6" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="2">
         <v>3</v>
       </c>
@@ -2321,170 +2395,179 @@
         <v>0</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E7" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>72</v>
+        <v>26</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>32</v>
+        <v>67</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="P7" s="2">
+        <v>27</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q7" s="2">
         <v>200</v>
       </c>
-      <c r="Q7" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="R7" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="S7" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.15">
+        <v>43</v>
+      </c>
+      <c r="T7" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="2">
         <v>4</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E8" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>72</v>
+        <v>26</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>32</v>
+        <v>67</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="P8" s="2">
+        <v>27</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q8" s="2">
         <v>200</v>
       </c>
-      <c r="Q8" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="R8" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="S8" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.15">
+        <v>43</v>
+      </c>
+      <c r="T8" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="2">
         <v>5</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E9" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>71</v>
+        <v>26</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>32</v>
+        <v>66</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="O9" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="P9" s="2">
+        <v>27</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q9" s="2">
         <v>200</v>
       </c>
-      <c r="Q9" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="R9" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="S9" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.15">
+        <v>43</v>
+      </c>
+      <c r="T9" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="2">
         <v>6</v>
       </c>
@@ -2492,226 +2575,238 @@
         <v>10</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E10" s="8" t="s">
         <v>13</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>71</v>
+        <v>26</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>32</v>
+        <v>66</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="P10" s="2">
+        <v>27</v>
+      </c>
+      <c r="O10" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q10" s="2">
         <v>200</v>
       </c>
-      <c r="Q10" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="R10" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="S10" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.15">
+        <v>43</v>
+      </c>
+      <c r="T10" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="2">
         <v>7</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="E11" s="8" t="s">
         <v>13</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>73</v>
+        <v>25</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>32</v>
+        <v>68</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="P11" s="2">
+        <v>27</v>
+      </c>
+      <c r="O11" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q11" s="2">
         <v>200</v>
       </c>
-      <c r="Q11" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="R11" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="S11" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.15">
+        <v>43</v>
+      </c>
+      <c r="T11" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="2">
         <v>8</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="E12" s="8" t="s">
         <v>13</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>71</v>
+        <v>26</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>32</v>
+        <v>66</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="O12" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="P12" s="2">
+        <v>27</v>
+      </c>
+      <c r="O12" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q12" s="2">
         <v>200</v>
       </c>
-      <c r="Q12" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="R12" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="S12" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.15">
+        <v>43</v>
+      </c>
+      <c r="T12" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="2">
         <v>9</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E13" s="8" t="s">
         <v>13</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>71</v>
+        <v>26</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>32</v>
+        <v>66</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="P13" s="2">
+        <v>27</v>
+      </c>
+      <c r="O13" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q13" s="2">
         <v>200</v>
       </c>
-      <c r="Q13" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="R13" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="S13" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.15">
+        <v>43</v>
+      </c>
+      <c r="T13" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="2">
         <v>10</v>
       </c>
@@ -2719,170 +2814,179 @@
         <v>5</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E14" s="8" t="s">
         <v>13</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>71</v>
+        <v>28</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>32</v>
+        <v>66</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="P14" s="2">
+        <v>27</v>
+      </c>
+      <c r="O14" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q14" s="2">
         <v>200</v>
       </c>
-      <c r="Q14" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="R14" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="S14" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.15">
+        <v>43</v>
+      </c>
+      <c r="T14" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="2">
         <v>11</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="E15" s="8" t="s">
         <v>13</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>71</v>
+        <v>28</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>32</v>
+        <v>66</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="O15" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="P15" s="2">
+        <v>27</v>
+      </c>
+      <c r="O15" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q15" s="2">
         <v>200</v>
       </c>
-      <c r="Q15" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="R15" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="S15" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.15">
+        <v>43</v>
+      </c>
+      <c r="T15" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="2">
         <v>12</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="E16" s="8" t="s">
         <v>13</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>71</v>
+        <v>28</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>32</v>
+        <v>66</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="P16" s="2">
+        <v>27</v>
+      </c>
+      <c r="O16" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q16" s="2">
         <v>200</v>
       </c>
-      <c r="Q16" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="R16" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="S16" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.15">
+        <v>43</v>
+      </c>
+      <c r="T16" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25">
       <c r="A17" s="2">
         <v>13</v>
       </c>
@@ -2890,339 +2994,357 @@
         <v>6</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="E17" s="8" t="s">
         <v>13</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>71</v>
+        <v>28</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>32</v>
+        <v>66</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="P17" s="2">
+        <v>27</v>
+      </c>
+      <c r="O17" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q17" s="2">
         <v>200</v>
       </c>
-      <c r="Q17" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="R17" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="S17" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.15">
+        <v>43</v>
+      </c>
+      <c r="T17" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25">
       <c r="A18" s="2">
         <v>14</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="E18" s="8" t="s">
         <v>13</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>71</v>
+        <v>28</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>32</v>
+        <v>66</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="P18" s="2">
+        <v>27</v>
+      </c>
+      <c r="O18" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q18" s="2">
         <v>200</v>
       </c>
-      <c r="Q18" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="R18" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="S18" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.15">
+        <v>43</v>
+      </c>
+      <c r="T18" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25">
       <c r="A19" s="2">
         <v>15</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="E19" s="8" t="s">
         <v>13</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>71</v>
+        <v>28</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>32</v>
+        <v>66</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="P19" s="2">
+        <v>27</v>
+      </c>
+      <c r="O19" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q19" s="2">
         <v>200</v>
       </c>
-      <c r="Q19" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="R19" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="S19" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.15">
+        <v>43</v>
+      </c>
+      <c r="T19" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25">
       <c r="A20" s="2">
         <v>16</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="E20" s="8" t="s">
         <v>13</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>71</v>
+        <v>28</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>32</v>
+        <v>66</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="P20" s="2">
+        <v>27</v>
+      </c>
+      <c r="O20" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q20" s="2">
         <v>200</v>
       </c>
-      <c r="Q20" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="R20" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="S20" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="T20" s="2"/>
-    </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.15">
+        <v>43</v>
+      </c>
+      <c r="T20" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="U20" s="2"/>
+    </row>
+    <row r="21" spans="1:25">
       <c r="A21" s="2">
         <v>17</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="E21" s="8" t="s">
         <v>13</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>71</v>
+        <v>28</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>32</v>
+        <v>66</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="P21" s="2">
+        <v>27</v>
+      </c>
+      <c r="O21" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q21" s="2">
         <v>200</v>
       </c>
-      <c r="Q21" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="R21" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="S21" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.15">
+        <v>43</v>
+      </c>
+      <c r="T21" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25">
       <c r="A22" s="2">
         <v>18</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="E22" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>71</v>
+        <v>28</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>32</v>
+        <v>66</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="P22" s="2">
+        <v>27</v>
+      </c>
+      <c r="O22" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q22" s="2">
         <v>200</v>
       </c>
-      <c r="Q22" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="R22" s="2" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="S22" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.15">
+        <v>28</v>
+      </c>
+      <c r="T22" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25">
       <c r="A23" s="2">
         <v>19</v>
       </c>
@@ -3230,170 +3352,179 @@
         <v>7</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="E23" s="8" t="s">
         <v>13</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>73</v>
+        <v>25</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>32</v>
+        <v>68</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="O23" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="O23" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q23" s="2">
+        <v>200</v>
+      </c>
+      <c r="R23" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="S23" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="P23" s="2">
-        <v>200</v>
-      </c>
-      <c r="Q23" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="R23" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="S23" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="T23" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25">
       <c r="A24" s="2">
         <v>20</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="E24" s="8" t="s">
         <v>13</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>73</v>
+        <v>25</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>32</v>
+        <v>68</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="O24" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="O24" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q24" s="2">
+        <v>200</v>
+      </c>
+      <c r="R24" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="S24" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="P24" s="2">
-        <v>200</v>
-      </c>
-      <c r="Q24" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="R24" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="S24" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="T24" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25">
       <c r="A25" s="2">
         <v>21</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="E25" s="8" t="s">
         <v>13</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>71</v>
+        <v>28</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>32</v>
+        <v>66</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="O25" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="O25" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q25" s="2">
+        <v>200</v>
+      </c>
+      <c r="R25" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="S25" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="P25" s="2">
-        <v>200</v>
-      </c>
-      <c r="Q25" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="R25" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="S25" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="T25" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25">
       <c r="A26" s="2">
         <v>22</v>
       </c>
@@ -3401,58 +3532,61 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E26" s="8" t="s">
         <v>13</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>71</v>
+        <v>28</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>93</v>
+        <v>66</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="O26" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="O26" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q26" s="2">
+        <v>200</v>
+      </c>
+      <c r="R26" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="S26" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="P26" s="2">
-        <v>200</v>
-      </c>
-      <c r="Q26" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="R26" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="S26" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="T26" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25">
       <c r="A27" s="2">
         <v>23</v>
       </c>
@@ -3460,204 +3594,214 @@
         <v>9</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="E27" s="8" t="s">
         <v>13</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>71</v>
+        <v>28</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>32</v>
+        <v>66</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="O27" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="O27" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q27" s="2">
+        <v>200</v>
+      </c>
+      <c r="R27" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="S27" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="P27" s="2">
-        <v>200</v>
-      </c>
-      <c r="Q27" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="R27" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="S27" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="T27" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25">
       <c r="A28" s="2">
         <v>24</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="E28" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>71</v>
+        <v>28</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>32</v>
+        <v>66</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="O28" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="P28" s="2">
+        <v>27</v>
+      </c>
+      <c r="O28" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q28" s="2">
         <v>200</v>
       </c>
-      <c r="Q28" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="R28" s="2" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="S28" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.15">
+        <v>28</v>
+      </c>
+      <c r="T28" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25">
       <c r="A29" s="2">
         <v>25</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="E29" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="L29" s="2" t="s">
-        <v>71</v>
+        <v>28</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>32</v>
+        <v>66</v>
       </c>
       <c r="N29" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="O29" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="O29" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q29" s="2">
+        <v>200</v>
+      </c>
+      <c r="R29" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="S29" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="P29" s="2">
-        <v>200</v>
-      </c>
-      <c r="Q29" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="R29" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="S29" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="30" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="T29" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25" s="3" customFormat="1">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="D30" s="4"/>
       <c r="E30" s="10"/>
       <c r="F30" s="11" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="G30" s="4"/>
       <c r="H30" s="5"/>
       <c r="I30" s="11"/>
       <c r="J30" s="11"/>
-      <c r="K30" s="12"/>
-      <c r="L30" s="4"/>
+      <c r="K30" s="11"/>
+      <c r="L30" s="12"/>
       <c r="M30" s="4"/>
       <c r="N30" s="4"/>
-      <c r="O30" s="13"/>
-      <c r="P30" s="4"/>
+      <c r="O30" s="4"/>
+      <c r="P30" s="13"/>
       <c r="Q30" s="4"/>
       <c r="R30" s="4"/>
       <c r="S30" s="4"/>
-    </row>
-    <row r="31" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="T30" s="4"/>
+    </row>
+    <row r="31" spans="1:25" s="3" customFormat="1">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="D31" s="4"/>
       <c r="E31" s="10"/>
       <c r="F31" s="11" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="G31" s="11" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="H31" s="11" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="I31" s="11"/>
       <c r="J31" s="11"/>
@@ -3665,9 +3809,9 @@
       <c r="L31" s="11"/>
       <c r="M31" s="11"/>
       <c r="N31" s="11"/>
-      <c r="O31" s="14"/>
+      <c r="O31" s="11"/>
       <c r="P31" s="14"/>
-      <c r="Q31" s="11"/>
+      <c r="Q31" s="14"/>
       <c r="R31" s="11"/>
       <c r="S31" s="11"/>
       <c r="T31" s="11"/>
@@ -3675,32 +3819,33 @@
       <c r="V31" s="11"/>
       <c r="W31" s="11"/>
       <c r="X31" s="11"/>
-    </row>
-    <row r="32" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="Y31" s="11"/>
+    </row>
+    <row r="32" spans="1:25" s="3" customFormat="1">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="D32" s="4"/>
       <c r="E32" s="10"/>
       <c r="F32" s="11" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="G32" s="11" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="H32" s="11" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="I32" s="11" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="J32" s="11"/>
       <c r="K32" s="11"/>
       <c r="L32" s="11"/>
       <c r="M32" s="11"/>
       <c r="N32" s="11"/>
-      <c r="O32" s="14"/>
+      <c r="O32" s="11"/>
       <c r="P32" s="14"/>
-      <c r="Q32" s="11"/>
+      <c r="Q32" s="14"/>
       <c r="R32" s="11"/>
       <c r="S32" s="11"/>
       <c r="T32" s="11"/>
@@ -3708,693 +3853,707 @@
       <c r="V32" s="11"/>
       <c r="W32" s="11"/>
       <c r="X32" s="11"/>
-    </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="Y32" s="11"/>
+    </row>
+    <row r="33" spans="1:25">
       <c r="A33" s="2">
         <v>26</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="F33" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J33" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="G33" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="H33" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="I33" s="2" t="s">
+      <c r="K33" s="2"/>
+      <c r="L33" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="M33" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="N33" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="O33" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="J33" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="K33" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="L33" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="M33" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="N33" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="O33" s="2"/>
       <c r="P33" s="2"/>
       <c r="Q33" s="2"/>
       <c r="R33" s="2"/>
-      <c r="S33" s="9"/>
+      <c r="S33" s="2"/>
       <c r="T33" s="9"/>
       <c r="U33" s="9"/>
       <c r="V33" s="9"/>
       <c r="W33" s="9"/>
       <c r="X33" s="9"/>
-    </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="Y33" s="9"/>
+    </row>
+    <row r="34" spans="1:25">
       <c r="A34" s="2">
         <v>27</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="F34" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="G34" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="H34" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="I34" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="J34" s="2" t="s">
+      <c r="M34" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="K34" s="2" t="s">
+      <c r="N34" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="L34" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="M34" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="N34" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="O34" s="2"/>
+      <c r="O34" s="2" t="s">
+        <v>84</v>
+      </c>
       <c r="P34" s="2"/>
       <c r="Q34" s="2"/>
       <c r="R34" s="2"/>
-      <c r="S34" s="9"/>
+      <c r="S34" s="2"/>
       <c r="T34" s="9"/>
       <c r="U34" s="9"/>
       <c r="V34" s="9"/>
       <c r="W34" s="9"/>
       <c r="X34" s="9"/>
-    </row>
-    <row r="35" spans="1:24" s="21" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="Y34" s="9"/>
+    </row>
+    <row r="35" spans="1:25" s="21" customFormat="1">
       <c r="A35" s="17">
         <v>28</v>
       </c>
       <c r="B35" s="17"/>
       <c r="C35" s="18" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E35" s="19" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="F35" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="G35" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="H35" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="I35" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="J35" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="K35" s="17"/>
+      <c r="L35" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="G35" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="H35" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="I35" s="17" t="s">
+      <c r="M35" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="N35" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="O35" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="J35" s="17" t="s">
+      <c r="P35" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="K35" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="L35" s="17" t="s">
+      <c r="Q35" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="R35" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="M35" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="N35" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="O35" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="P35" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q35" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="R35" s="17"/>
-      <c r="S35" s="20"/>
+      <c r="S35" s="17"/>
       <c r="T35" s="20"/>
       <c r="U35" s="20"/>
       <c r="V35" s="20"/>
       <c r="W35" s="20"/>
       <c r="X35" s="20"/>
-    </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="Y35" s="20"/>
+    </row>
+    <row r="36" spans="1:25">
       <c r="A36" s="2">
         <v>29</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="F36" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="G36" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="H36" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="I36" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="J36" s="2" t="s">
+      <c r="M36" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="K36" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="L36" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="M36" s="2" t="s">
-        <v>90</v>
-      </c>
       <c r="N36" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="R36" s="2"/>
-      <c r="S36" s="9"/>
+        <v>85</v>
+      </c>
+      <c r="O36" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="S36" s="2"/>
       <c r="T36" s="9"/>
       <c r="U36" s="9"/>
       <c r="V36" s="9"/>
       <c r="W36" s="9"/>
       <c r="X36" s="9"/>
-    </row>
-    <row r="37" spans="1:24" s="21" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="Y36" s="9"/>
+    </row>
+    <row r="37" spans="1:25" s="21" customFormat="1">
       <c r="A37" s="17">
         <v>30</v>
       </c>
       <c r="B37" s="17"/>
       <c r="C37" s="18" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E37" s="19" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="F37" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="G37" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="H37" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="I37" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="J37" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="K37" s="17"/>
+      <c r="L37" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="G37" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="H37" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="I37" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="J37" s="17" t="s">
+      <c r="M37" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="K37" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="L37" s="17" t="s">
+      <c r="N37" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="O37" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="P37" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="M37" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="N37" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="O37" s="21" t="s">
-        <v>92</v>
-      </c>
-      <c r="R37" s="17"/>
-      <c r="S37" s="20"/>
+      <c r="S37" s="17"/>
       <c r="T37" s="20"/>
       <c r="U37" s="20"/>
       <c r="V37" s="20"/>
       <c r="W37" s="20"/>
       <c r="X37" s="20"/>
-    </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="Y37" s="20"/>
+    </row>
+    <row r="38" spans="1:25">
       <c r="A38" s="2">
         <v>31</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="F38" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="G38" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="H38" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="I38" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="J38" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="K38" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="L38" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="M38" s="2"/>
-      <c r="O38" s="2"/>
+      <c r="M38" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="N38" s="2"/>
       <c r="P38" s="2"/>
       <c r="Q38" s="2"/>
       <c r="R38" s="2"/>
-      <c r="S38" s="9"/>
+      <c r="S38" s="2"/>
       <c r="T38" s="9"/>
       <c r="U38" s="9"/>
       <c r="V38" s="9"/>
       <c r="W38" s="9"/>
       <c r="X38" s="9"/>
-    </row>
-    <row r="39" spans="1:24" s="21" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="Y38" s="9"/>
+    </row>
+    <row r="39" spans="1:25" s="21" customFormat="1">
       <c r="A39" s="17">
         <v>32</v>
       </c>
       <c r="B39" s="17"/>
       <c r="C39" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="D39" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="E39" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="F39" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="G39" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="H39" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="I39" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="D39" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="E39" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="F39" s="17" t="s">
+      <c r="J39" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="K39" s="17"/>
+      <c r="L39" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="G39" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="H39" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="I39" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="J39" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="K39" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="L39" s="17"/>
       <c r="M39" s="17"/>
       <c r="N39" s="17"/>
       <c r="O39" s="17"/>
       <c r="P39" s="17"/>
       <c r="Q39" s="17"/>
       <c r="R39" s="17"/>
-      <c r="S39" s="20"/>
+      <c r="S39" s="17"/>
       <c r="T39" s="20"/>
       <c r="U39" s="20"/>
       <c r="V39" s="20"/>
       <c r="W39" s="20"/>
       <c r="X39" s="20"/>
-    </row>
-    <row r="40" spans="1:24" s="21" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="Y39" s="20"/>
+    </row>
+    <row r="40" spans="1:25" s="21" customFormat="1">
       <c r="A40" s="17">
         <v>33</v>
       </c>
       <c r="B40" s="17"/>
       <c r="C40" s="18" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E40" s="19" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="F40" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="G40" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="H40" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="I40" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="J40" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="K40" s="17"/>
+      <c r="L40" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="G40" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="H40" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="I40" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="J40" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="K40" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="L40" s="17"/>
       <c r="M40" s="17"/>
       <c r="N40" s="17"/>
       <c r="O40" s="17"/>
       <c r="P40" s="17"/>
       <c r="Q40" s="17"/>
       <c r="R40" s="17"/>
-      <c r="S40" s="20"/>
+      <c r="S40" s="17"/>
       <c r="T40" s="20"/>
       <c r="U40" s="20"/>
       <c r="V40" s="20"/>
       <c r="W40" s="20"/>
       <c r="X40" s="20"/>
-    </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="Y40" s="20"/>
+    </row>
+    <row r="41" spans="1:25">
       <c r="A41" s="2">
         <v>34</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E41" s="8" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="F41" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J41" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="K41" s="2"/>
+      <c r="L41" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="G41" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="H41" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="I41" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="J41" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="K41" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="L41" s="2"/>
       <c r="M41" s="2"/>
-      <c r="O41" s="2"/>
+      <c r="N41" s="2"/>
       <c r="P41" s="2"/>
       <c r="Q41" s="2"/>
       <c r="R41" s="2"/>
-      <c r="S41" s="9"/>
+      <c r="S41" s="2"/>
       <c r="T41" s="9"/>
       <c r="U41" s="9"/>
       <c r="V41" s="9"/>
       <c r="W41" s="9"/>
       <c r="X41" s="9"/>
-    </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="Y41" s="9"/>
+    </row>
+    <row r="42" spans="1:25">
       <c r="A42" s="2">
         <v>35</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="E42" s="8" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="K42" s="2" t="s">
-        <v>189</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="K42" s="2"/>
       <c r="L42" s="2" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="M42" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="O42" s="2"/>
+        <v>186</v>
+      </c>
+      <c r="N42" s="2" t="s">
+        <v>185</v>
+      </c>
       <c r="P42" s="2"/>
       <c r="Q42" s="2"/>
       <c r="R42" s="2"/>
-      <c r="S42" s="9"/>
+      <c r="S42" s="2"/>
       <c r="T42" s="9"/>
       <c r="U42" s="9"/>
       <c r="V42" s="9"/>
       <c r="W42" s="9"/>
       <c r="X42" s="9"/>
-    </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="Y42" s="9"/>
+    </row>
+    <row r="43" spans="1:25">
       <c r="A43" s="2">
         <v>36</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="E43" s="8" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="K43" s="2" t="s">
-        <v>189</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="K43" s="2"/>
       <c r="L43" s="2" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="M43" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="O43" s="2"/>
+        <v>186</v>
+      </c>
+      <c r="N43" s="2" t="s">
+        <v>185</v>
+      </c>
       <c r="P43" s="2"/>
       <c r="Q43" s="2"/>
       <c r="R43" s="2"/>
-      <c r="S43" s="9"/>
+      <c r="S43" s="2"/>
       <c r="T43" s="9"/>
       <c r="U43" s="9"/>
       <c r="V43" s="9"/>
       <c r="W43" s="9"/>
       <c r="X43" s="9"/>
-    </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="Y43" s="9"/>
+    </row>
+    <row r="44" spans="1:25">
       <c r="A44" s="2">
         <v>37</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="E44" s="8" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="K44" s="2" t="s">
-        <v>189</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="K44" s="2"/>
       <c r="L44" s="2" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="M44" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="O44" s="2"/>
+        <v>186</v>
+      </c>
+      <c r="N44" s="2" t="s">
+        <v>185</v>
+      </c>
       <c r="P44" s="2"/>
       <c r="Q44" s="2"/>
       <c r="R44" s="2"/>
-      <c r="S44" s="9"/>
+      <c r="S44" s="2"/>
       <c r="T44" s="9"/>
       <c r="U44" s="9"/>
       <c r="V44" s="9"/>
       <c r="W44" s="9"/>
       <c r="X44" s="9"/>
-    </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="Y44" s="9"/>
+    </row>
+    <row r="45" spans="1:25">
       <c r="A45" s="2">
         <v>38</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="E45" s="8" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="K45" s="2" t="s">
-        <v>189</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="K45" s="2"/>
       <c r="L45" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="M45" s="2"/>
-      <c r="O45" s="2"/>
+        <v>184</v>
+      </c>
+      <c r="M45" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="N45" s="2"/>
       <c r="P45" s="2"/>
       <c r="Q45" s="2"/>
       <c r="R45" s="2"/>
-      <c r="S45" s="9"/>
+      <c r="S45" s="2"/>
       <c r="T45" s="9"/>
       <c r="U45" s="9"/>
       <c r="V45" s="9"/>
       <c r="W45" s="9"/>
       <c r="X45" s="9"/>
-    </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="Y45" s="9"/>
+    </row>
+    <row r="46" spans="1:25">
       <c r="A46" s="2">
         <v>39</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E46" s="8" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="K46" s="2" t="s">
-        <v>189</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="K46" s="2"/>
       <c r="L46" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="M46" s="2"/>
-      <c r="O46" s="2"/>
+        <v>184</v>
+      </c>
+      <c r="M46" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="N46" s="2"/>
       <c r="P46" s="2"/>
       <c r="Q46" s="2"/>
       <c r="R46" s="2"/>
-      <c r="S46" s="9"/>
+      <c r="S46" s="2"/>
       <c r="T46" s="9"/>
       <c r="U46" s="9"/>
       <c r="V46" s="9"/>
       <c r="W46" s="9"/>
       <c r="X46" s="9"/>
-    </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="K47" s="9"/>
+      <c r="Y46" s="9"/>
+    </row>
+    <row r="47" spans="1:25">
       <c r="L47" s="9"/>
-      <c r="M47" s="15"/>
-      <c r="N47" s="9"/>
+      <c r="M47" s="9"/>
+      <c r="N47" s="15"/>
       <c r="O47" s="9"/>
       <c r="P47" s="9"/>
       <c r="Q47" s="9"/>
@@ -4404,59 +4563,60 @@
       <c r="U47" s="9"/>
       <c r="V47" s="9"/>
       <c r="W47" s="9"/>
+      <c r="X47" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="A1:A4"/>
-    <mergeCell ref="O2:O4"/>
     <mergeCell ref="P2:P4"/>
+    <mergeCell ref="Q2:Q4"/>
     <mergeCell ref="D1:D4"/>
     <mergeCell ref="E1:E4"/>
     <mergeCell ref="C1:C4"/>
     <mergeCell ref="B1:B4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="Q5:S30 R31:T32 J31:O32 I30:N30 F30:H32 R36:R37 L36:N37 F5:N29">
-    <cfRule type="cellIs" dxfId="11" priority="34" operator="equal">
+  <conditionalFormatting sqref="R5:T30 S31:U32 J31:P32 I30:O30 F30:H32 S36:S37 M36:O37 F5:O29">
+    <cfRule type="cellIs" dxfId="14" priority="34" operator="equal">
       <formula>"必须"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="35" operator="equal">
       <formula>"无"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="36" operator="equal">
       <formula>"可选"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T20">
-    <cfRule type="cellIs" dxfId="8" priority="10" operator="equal">
+  <conditionalFormatting sqref="U20">
+    <cfRule type="cellIs" dxfId="11" priority="10" operator="equal">
       <formula>"必须"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
       <formula>"无"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="12" operator="equal">
       <formula>"可选"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I31:I32">
-    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="4" operator="equal">
       <formula>"必须"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
       <formula>"无"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
       <formula>"可选"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F33:R35 F36:K37 F38:R46">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+  <conditionalFormatting sqref="F33:S35 F36:L37 F38:S46">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
       <formula>"必须"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
       <formula>"无"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>"可选"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4505,43 +4665,43 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -4551,43 +4711,43 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -4597,43 +4757,43 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -4643,43 +4803,43 @@
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -4689,48 +4849,48 @@
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -4740,98 +4900,98 @@
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
       <c r="B9" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
       <c r="B10" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
       <c r="B11" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
       <c r="B12" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="B13" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="B14" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="B15" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="B16" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B13" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B14" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B15" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B16" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B17" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:2">
       <c r="B18" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -4841,53 +5001,53 @@
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="B4" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="B5" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -4897,93 +5057,93 @@
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="B4" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="B5" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="B6" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
       <c r="B7" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="B8" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="B9" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="B10" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="B11" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="B12" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B8" t="s">
+    <row r="13" spans="1:2">
+      <c r="B13" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B9" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B10" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B11" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B12" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B13" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -4993,43 +5153,43 @@
 </file>
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -5039,63 +5199,63 @@
 </file>
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -5105,43 +5265,43 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -5151,63 +5311,63 @@
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -5217,43 +5377,43 @@
 </file>
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -5263,43 +5423,43 @@
 </file>
 
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -5309,73 +5469,73 @@
 </file>
 
 <file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="B8" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="B9" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="B10" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="B11" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="B12" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B8" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B9" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B10" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B11" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B12" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:2">
       <c r="B13" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -5385,58 +5545,58 @@
 </file>
 
 <file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -5446,93 +5606,93 @@
 </file>
 
 <file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="B11" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="B12" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
+    <row r="13" spans="1:2">
+      <c r="B13" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9" t="s">
+    <row r="14" spans="1:2">
+      <c r="B14" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A10" t="s">
+    <row r="15" spans="1:2">
+      <c r="B15" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B11" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B12" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B13" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B14" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B15" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:2">
       <c r="B16" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -5542,98 +5702,98 @@
 </file>
 
 <file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
+    <row r="12" spans="1:2">
+      <c r="B12" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9" t="s">
+    <row r="13" spans="1:2">
+      <c r="B13" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="B14" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A10" t="s">
+    <row r="15" spans="1:2">
+      <c r="B15" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A11" t="s">
+    <row r="16" spans="1:2">
+      <c r="B16" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B12" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B13" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B14" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B15" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B16" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:2">
       <c r="B17" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -5643,48 +5803,48 @@
 </file>
 
 <file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -5694,108 +5854,108 @@
 </file>
 
 <file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
+    <row r="15" spans="1:2">
+      <c r="B15" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
+    <row r="16" spans="1:2">
+      <c r="B16" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A10" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A11" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A12" t="s">
+    <row r="17" spans="1:2">
+      <c r="B17" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A13" t="s">
+    <row r="18" spans="1:2">
+      <c r="B18" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A14" t="s">
+    <row r="19" spans="1:2">
+      <c r="B19" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B15" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B16" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B17" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B18" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B19" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:2">
       <c r="B20" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -5805,53 +5965,53 @@
 </file>
 
 <file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
     </row>
   </sheetData>
@@ -5861,43 +6021,43 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -5907,43 +6067,43 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -5953,43 +6113,43 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -5999,43 +6159,43 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -6045,43 +6205,43 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -6091,43 +6251,43 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>

--- a/A-开发相关文档素材/6.二期文档/产品接口协议.xlsx
+++ b/A-开发相关文档素材/6.二期文档/产品接口协议.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="9075"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="9075" firstSheet="26" activeTab="26"/>
   </bookViews>
   <sheets>
     <sheet name="修改履历" sheetId="39" r:id="rId1"/>
@@ -1092,6 +1092,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1104,36 +1107,12 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
-  <dxfs count="15">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="12">
     <dxf>
       <fill>
         <patternFill>
@@ -1491,7 +1470,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1501,7 +1480,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -2083,7 +2062,7 @@
       <selection activeCell="A8" sqref="A8"/>
       <selection pane="topRight" activeCell="A8" sqref="A8"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="K16" sqref="K16"/>
+      <selection pane="bottomRight" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -2113,54 +2092,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" s="3" customFormat="1">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="E1" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="29" t="s">
+      <c r="F1" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
       <c r="P1" s="6" t="s">
         <v>31</v>
       </c>
       <c r="Q1" s="4"/>
     </row>
     <row r="2" spans="1:20" s="3" customFormat="1">
-      <c r="A2" s="25"/>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="29" t="s">
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29" t="s">
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="P2" s="26" t="s">
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="P2" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="Q2" s="27" t="s">
+      <c r="Q2" s="28" t="s">
         <v>32</v>
       </c>
       <c r="R2" s="3" t="s">
@@ -2168,27 +2147,27 @@
       </c>
     </row>
     <row r="3" spans="1:20" s="3" customFormat="1">
-      <c r="A3" s="25"/>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="29" t="s">
+      <c r="A3" s="26"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="29" t="s">
+      <c r="G3" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="29" t="s">
+      <c r="H3" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="I3" s="29" t="s">
+      <c r="I3" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="J3" s="29" t="s">
+      <c r="J3" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="K3" s="29" t="s">
+      <c r="K3" s="25" t="s">
         <v>198</v>
       </c>
       <c r="L3" s="3" t="s">
@@ -2203,8 +2182,8 @@
       <c r="O3" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="P3" s="26"/>
-      <c r="Q3" s="27"/>
+      <c r="P3" s="27"/>
+      <c r="Q3" s="28"/>
       <c r="R3" s="3" t="s">
         <v>37</v>
       </c>
@@ -2216,27 +2195,27 @@
       </c>
     </row>
     <row r="4" spans="1:20" s="3" customFormat="1">
-      <c r="A4" s="25"/>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="29" t="s">
+      <c r="A4" s="26"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="25" t="s">
         <v>199</v>
       </c>
-      <c r="G4" s="29" t="s">
+      <c r="G4" s="25" t="s">
         <v>200</v>
       </c>
-      <c r="H4" s="29" t="s">
+      <c r="H4" s="25" t="s">
         <v>201</v>
       </c>
-      <c r="I4" s="29" t="s">
+      <c r="I4" s="25" t="s">
         <v>202</v>
       </c>
-      <c r="J4" s="29" t="s">
+      <c r="J4" s="25" t="s">
         <v>203</v>
       </c>
-      <c r="K4" s="29" t="s">
+      <c r="K4" s="25" t="s">
         <v>204</v>
       </c>
       <c r="L4" s="3" t="s">
@@ -2251,8 +2230,8 @@
       <c r="O4" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="P4" s="26"/>
-      <c r="Q4" s="27"/>
+      <c r="P4" s="27"/>
+      <c r="Q4" s="28"/>
       <c r="R4" s="3" t="s">
         <v>35</v>
       </c>
@@ -4577,46 +4556,46 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="R5:T30 S31:U32 J31:P32 I30:O30 F30:H32 S36:S37 M36:O37 F5:O29">
-    <cfRule type="cellIs" dxfId="14" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="34" operator="equal">
       <formula>"必须"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="35" operator="equal">
       <formula>"无"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="36" operator="equal">
       <formula>"可选"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U20">
-    <cfRule type="cellIs" dxfId="11" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="10" operator="equal">
       <formula>"必须"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="11" operator="equal">
       <formula>"无"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="12" operator="equal">
       <formula>"可选"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I31:I32">
-    <cfRule type="cellIs" dxfId="8" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
       <formula>"必须"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>"无"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="6" operator="equal">
       <formula>"可选"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F33:S35 F36:L37 F38:S46">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"必须"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"无"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
       <formula>"可选"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5060,8 +5039,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5968,9 +5947,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
